--- a/COURSERA/Data Science with Databricks for Data Analysts Specialization/Data Science Fundamentals for Data Analysts Specilization/Week_2/Assignment_Kadir_Duran.xlsx
+++ b/COURSERA/Data Science with Databricks for Data Analysts Specialization/Data Science Fundamentals for Data Analysts Specilization/Week_2/Assignment_Kadir_Duran.xlsx
@@ -408,7 +408,7 @@
   <dimension ref="A2:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B9:B10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
